--- a/Alishop Testcase.xlsx
+++ b/Alishop Testcase.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JENX\OneDrive\Desktop\alishop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\Sample-Testcase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B6E1784-A960-430F-AEB9-577FADE6C980}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AC0E164-3370-41DD-B410-DABC5C54D6A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="130">
   <si>
     <t>Product Name</t>
   </si>
@@ -647,12 +647,15 @@
   <si>
     <t>Product detail shows properly</t>
   </si>
+  <si>
+    <t>TC010</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -721,6 +724,11 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="9">
@@ -1009,20 +1017,20 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="12" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1573,8 +1581,8 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
+      <pane ySplit="6" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1592,7 +1600,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="42"/>
@@ -1611,7 +1619,7 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="43" t="s">
+      <c r="H1" s="45" t="s">
         <v>6</v>
       </c>
       <c r="I1" s="42"/>
@@ -1634,7 +1642,7 @@
       <c r="Z1" s="4"/>
     </row>
     <row r="2" spans="1:26" ht="36" x14ac:dyDescent="0.2">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="46" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="42"/>
@@ -1679,7 +1687,7 @@
       <c r="Z2" s="4"/>
     </row>
     <row r="3" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="44"/>
+      <c r="A3" s="46"/>
       <c r="B3" s="42"/>
       <c r="C3" s="7"/>
       <c r="D3" s="8" t="s">
@@ -1720,7 +1728,7 @@
       <c r="Z3" s="4"/>
     </row>
     <row r="4" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="46" t="s">
         <v>16</v>
       </c>
       <c r="B4" s="42"/>
@@ -1765,16 +1773,16 @@
       <c r="Z4" s="4"/>
     </row>
     <row r="5" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="45" t="s">
+      <c r="A5" s="41" t="s">
         <v>23</v>
       </c>
       <c r="B5" s="42"/>
-      <c r="C5" s="45" t="s">
+      <c r="C5" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="43"/>
       <c r="G5" s="42"/>
       <c r="H5" s="14" t="s">
         <v>24</v>
@@ -2153,7 +2161,7 @@
       <c r="Y13" s="4"/>
       <c r="Z13" s="4"/>
     </row>
-    <row r="14" spans="1:26" ht="60" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:26" ht="75" x14ac:dyDescent="0.2">
       <c r="A14" s="25" t="s">
         <v>76</v>
       </c>
@@ -2242,14 +2250,16 @@
       <c r="Z15" s="4"/>
     </row>
     <row r="16" spans="1:26" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="32"/>
-      <c r="B16" s="33"/>
-      <c r="C16" s="33"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="35"/>
+      <c r="A16" s="31" t="s">
+        <v>129</v>
+      </c>
+      <c r="B16" s="29"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="23"/>
       <c r="I16" s="36"/>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
@@ -29831,6 +29841,7 @@
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A4:B4"/>
   </mergeCells>
+  <phoneticPr fontId="13" type="noConversion"/>
   <conditionalFormatting sqref="G8:G12 G14">
     <cfRule type="cellIs" dxfId="31" priority="1" operator="equal">
       <formula>"FAIL"</formula>
@@ -29891,28 +29902,28 @@
       <formula>LEN(TRIM(I3))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G7 G9 G11 G13 G15">
+  <conditionalFormatting sqref="G7 G9 G11 G13 G15:G16">
     <cfRule type="cellIs" dxfId="19" priority="13" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G7 G9 G11 G13 G15">
+  <conditionalFormatting sqref="G7 G9 G11 G13 G15:G16">
     <cfRule type="cellIs" dxfId="18" priority="14" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G7 G9 G11 G13 G15">
+  <conditionalFormatting sqref="G7 G9 G11 G13 G15:G16">
     <cfRule type="cellIs" dxfId="17" priority="15" operator="equal">
       <formula>"WARNING"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G7 G9 G11 G13 G15">
+  <conditionalFormatting sqref="G7 G9 G11 G13 G15:G16">
     <cfRule type="containsBlanks" dxfId="16" priority="16">
       <formula>LEN(TRIM(G7))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Click and enter a value from the list of items" sqref="G7:G15" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Click and enter a value from the list of items" sqref="G7:G16" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"PASS,FAIL,WARNING"</formula1>
     </dataValidation>
   </dataValidations>
@@ -29970,7 +29981,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="42"/>
@@ -29989,7 +30000,7 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="43" t="s">
+      <c r="H1" s="45" t="s">
         <v>6</v>
       </c>
       <c r="I1" s="42"/>
@@ -30012,7 +30023,7 @@
       <c r="Z1" s="4"/>
     </row>
     <row r="2" spans="1:26" ht="36" x14ac:dyDescent="0.2">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="46" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="42"/>
@@ -30057,7 +30068,7 @@
       <c r="Z2" s="4"/>
     </row>
     <row r="3" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="44"/>
+      <c r="A3" s="46"/>
       <c r="B3" s="42"/>
       <c r="C3" s="7"/>
       <c r="D3" s="8" t="s">
@@ -30098,7 +30109,7 @@
       <c r="Z3" s="4"/>
     </row>
     <row r="4" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="46" t="s">
         <v>16</v>
       </c>
       <c r="B4" s="42"/>
@@ -30143,16 +30154,16 @@
       <c r="Z4" s="4"/>
     </row>
     <row r="5" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="45" t="s">
+      <c r="A5" s="41" t="s">
         <v>23</v>
       </c>
       <c r="B5" s="42"/>
-      <c r="C5" s="45" t="s">
+      <c r="C5" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="43"/>
       <c r="G5" s="42"/>
       <c r="H5" s="14" t="s">
         <v>24</v>
@@ -30481,7 +30492,7 @@
       <c r="Y12" s="4"/>
       <c r="Z12" s="4"/>
     </row>
-    <row r="13" spans="1:26" ht="45" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" ht="60" x14ac:dyDescent="0.2">
       <c r="A13" s="28" t="s">
         <v>69</v>
       </c>
